--- a/academycity/data/avic/datasets/excel/eli/1992.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/1992.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" state="visible" r:id="rId2"/>
@@ -1051,13 +1051,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF993300"/>
       <name val="Arial"/>
@@ -1079,6 +1072,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -1172,18 +1172,12 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1224,7 +1218,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1258,7 +1252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1282,10 +1276,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -1294,7 +1285,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1306,19 +1297,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1326,11 +1317,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1354,15 +1345,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1370,7 +1361,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1378,15 +1369,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1402,11 +1393,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1418,7 +1409,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1426,11 +1417,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1438,7 +1429,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1446,7 +1437,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1454,7 +1445,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1462,7 +1453,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1470,7 +1461,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1478,11 +1469,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1490,36 +1481,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Neutral 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Calculation" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1558,7 +1548,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1601,7 +1591,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11"/>
@@ -1619,7 +1609,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="3" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="11"/>
@@ -28323,20 +28313,21 @@
   </sheetPr>
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A152" activeCellId="0" sqref="A152"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1001" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1002" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -28350,7 +28341,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -28364,7 +28355,7 @@
         <v>44.0296934643531</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -28378,7 +28369,7 @@
         <v>13.8349123234829</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>24</v>
       </c>
@@ -28390,7 +28381,7 @@
         <v>50.546</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>186</v>
       </c>
@@ -28404,7 +28395,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>187</v>
       </c>
@@ -28418,7 +28409,7 @@
         <v>29.311</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
@@ -28432,7 +28423,7 @@
         <v>52.242</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>188</v>
       </c>
@@ -28446,7 +28437,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>189</v>
       </c>
@@ -28460,7 +28451,7 @@
         <v>19.546</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>190</v>
       </c>
@@ -28474,7 +28465,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>191</v>
       </c>
@@ -28488,7 +28479,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>192</v>
       </c>
@@ -28502,7 +28493,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>193</v>
       </c>
@@ -28516,7 +28507,7 @@
         <v>27.298</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>34</v>
       </c>
@@ -28530,7 +28521,7 @@
         <v>33.332</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>194</v>
       </c>
@@ -28544,7 +28535,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>195</v>
       </c>
@@ -28558,7 +28549,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>196</v>
       </c>
@@ -28572,7 +28563,7 @@
         <v>45.722</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>38</v>
       </c>
@@ -28586,7 +28577,7 @@
         <v>35.584</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>197</v>
       </c>
@@ -28600,7 +28591,7 @@
         <v>36.009</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>40</v>
       </c>
@@ -28614,7 +28605,7 @@
         <v>32.728</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>198</v>
       </c>
@@ -28628,7 +28619,7 @@
         <v>22.963</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>199</v>
       </c>
@@ -28642,7 +28633,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>43</v>
       </c>
@@ -28656,7 +28647,7 @@
         <v>47.197</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>44</v>
       </c>
@@ -28670,7 +28661,7 @@
         <v>48.157</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>200</v>
       </c>
@@ -28684,7 +28675,7 @@
         <v>38.709</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>201</v>
       </c>
@@ -28698,7 +28689,7 @@
         <v>43.786</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>47</v>
       </c>
@@ -28712,7 +28703,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>202</v>
       </c>
@@ -28726,7 +28717,7 @@
         <v>40.411</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>203</v>
       </c>
@@ -28740,7 +28731,7 @@
         <v>51.266</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>204</v>
       </c>
@@ -28754,7 +28745,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>301</v>
       </c>
@@ -28768,7 +28759,7 @@
         <v>18.27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>205</v>
       </c>
@@ -28782,7 +28773,7 @@
         <v>26.477</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>302</v>
       </c>
@@ -28796,7 +28787,7 @@
         <v>48.694</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>303</v>
       </c>
@@ -28810,7 +28801,7 @@
         <v>38.094</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>55</v>
       </c>
@@ -28824,7 +28815,7 @@
         <v>25.248</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>208</v>
       </c>
@@ -28838,7 +28829,7 @@
         <v>40.511</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>209</v>
       </c>
@@ -28852,7 +28843,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>58</v>
       </c>
@@ -28866,7 +28857,7 @@
         <v>15.836</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>59</v>
       </c>
@@ -28880,7 +28871,7 @@
         <v>18.255</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>210</v>
       </c>
@@ -28894,7 +28885,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>61</v>
       </c>
@@ -28908,7 +28899,7 @@
         <v>39.297</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>211</v>
       </c>
@@ -28922,7 +28913,7 @@
         <v>28.867</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>212</v>
       </c>
@@ -28936,7 +28927,7 @@
         <v>28.814</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>213</v>
       </c>
@@ -28950,7 +28941,7 @@
         <v>28.915</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>65</v>
       </c>
@@ -28964,7 +28955,7 @@
         <v>30.813</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>214</v>
       </c>
@@ -28978,7 +28969,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>215</v>
       </c>
@@ -28992,7 +28983,7 @@
         <v>46.927</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>68</v>
       </c>
@@ -29006,7 +28997,7 @@
         <v>28.257</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>216</v>
       </c>
@@ -29020,7 +29011,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>70</v>
       </c>
@@ -29034,7 +29025,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>71</v>
       </c>
@@ -29048,7 +29039,7 @@
         <v>36.401</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>217</v>
       </c>
@@ -29062,7 +29053,7 @@
         <v>46.985</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>218</v>
       </c>
@@ -29076,7 +29067,7 @@
         <v>15.799</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>304</v>
       </c>
@@ -29090,7 +29081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>75</v>
       </c>
@@ -29104,7 +29095,7 @@
         <v>37.906</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>220</v>
       </c>
@@ -29118,7 +29109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>77</v>
       </c>
@@ -29132,7 +29123,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>221</v>
       </c>
@@ -29146,7 +29137,7 @@
         <v>45.663</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>305</v>
       </c>
@@ -29160,7 +29151,7 @@
         <v>44.55</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>80</v>
       </c>
@@ -29174,7 +29165,7 @@
         <v>23.026</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>223</v>
       </c>
@@ -29188,7 +29179,7 @@
         <v>35.872</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>82</v>
       </c>
@@ -29202,7 +29193,7 @@
         <v>37.329</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>323</v>
       </c>
@@ -29216,7 +29207,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>224</v>
       </c>
@@ -29230,7 +29221,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>225</v>
       </c>
@@ -29244,7 +29235,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>226</v>
       </c>
@@ -29258,7 +29249,7 @@
         <v>24.645</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>307</v>
       </c>
@@ -29272,7 +29263,7 @@
         <v>29.114</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>228</v>
       </c>
@@ -29286,7 +29277,7 @@
         <v>37.29</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>229</v>
       </c>
@@ -29300,7 +29291,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>230</v>
       </c>
@@ -29314,7 +29305,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>231</v>
       </c>
@@ -29328,7 +29319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>232</v>
       </c>
@@ -29342,7 +29333,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>233</v>
       </c>
@@ -29356,7 +29347,7 @@
         <v>9.8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>234</v>
       </c>
@@ -29370,7 +29361,7 @@
         <v>33.953</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>95</v>
       </c>
@@ -29384,7 +29375,7 @@
         <v>19.9</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>96</v>
       </c>
@@ -29398,7 +29389,7 @@
         <v>40.194</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>308</v>
       </c>
@@ -29412,7 +29403,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>236</v>
       </c>
@@ -29426,7 +29417,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>237</v>
       </c>
@@ -29440,7 +29431,7 @@
         <v>41.737</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>238</v>
       </c>
@@ -29454,7 +29445,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>239</v>
       </c>
@@ -29468,7 +29459,7 @@
         <v>23.634</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>102</v>
       </c>
@@ -29482,7 +29473,7 @@
         <v>34.408</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>103</v>
       </c>
@@ -29496,7 +29487,7 @@
         <v>44.48</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>240</v>
       </c>
@@ -29510,7 +29501,7 @@
         <v>26.701</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>241</v>
       </c>
@@ -29524,7 +29515,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>242</v>
       </c>
@@ -29538,7 +29529,7 @@
         <v>16.974</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>107</v>
       </c>
@@ -29552,7 +29543,7 @@
         <v>45.017</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>108</v>
       </c>
@@ -29566,7 +29557,7 @@
         <v>48.805</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>243</v>
       </c>
@@ -29580,7 +29571,7 @@
         <v>27.725</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>110</v>
       </c>
@@ -29594,7 +29585,7 @@
         <v>47.678</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>244</v>
       </c>
@@ -29608,7 +29599,7 @@
         <v>40.226</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>245</v>
       </c>
@@ -29622,7 +29613,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>246</v>
       </c>
@@ -29636,7 +29627,7 @@
         <v>27.599</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>247</v>
       </c>
@@ -29650,7 +29641,7 @@
         <v>16.454</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>248</v>
       </c>
@@ -29664,7 +29655,7 @@
         <v>28.621</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>249</v>
       </c>
@@ -29678,7 +29669,7 @@
         <v>28.354</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>117</v>
       </c>
@@ -29692,7 +29683,7 @@
         <v>43.306</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>250</v>
       </c>
@@ -29706,7 +29697,7 @@
         <v>25.302</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>251</v>
       </c>
@@ -29720,7 +29711,7 @@
         <v>36.976</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>252</v>
       </c>
@@ -29734,7 +29725,7 @@
         <v>36.796</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>253</v>
       </c>
@@ -29748,7 +29739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>254</v>
       </c>
@@ -29762,7 +29753,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>123</v>
       </c>
@@ -29776,7 +29767,7 @@
         <v>35.532</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>124</v>
       </c>
@@ -29790,7 +29781,7 @@
         <v>54.919</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>125</v>
       </c>
@@ -29804,7 +29795,7 @@
         <v>43.687</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>255</v>
       </c>
@@ -29818,7 +29809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>127</v>
       </c>
@@ -29832,7 +29823,7 @@
         <v>34.144</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>128</v>
       </c>
@@ -29846,7 +29837,7 @@
         <v>38.728</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>129</v>
       </c>
@@ -29860,7 +29851,7 @@
         <v>25.645</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>130</v>
       </c>
@@ -29874,7 +29865,7 @@
         <v>35.186</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>131</v>
       </c>
@@ -29888,7 +29879,7 @@
         <v>32.273</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>256</v>
       </c>
@@ -29902,7 +29893,7 @@
         <v>28.731</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>133</v>
       </c>
@@ -29916,7 +29907,7 @@
         <v>32.121</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>257</v>
       </c>
@@ -29930,7 +29921,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>258</v>
       </c>
@@ -29944,7 +29935,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>259</v>
       </c>
@@ -29958,7 +29949,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>260</v>
       </c>
@@ -29972,7 +29963,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>138</v>
       </c>
@@ -29986,7 +29977,7 @@
         <v>45.489</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>261</v>
       </c>
@@ -30000,7 +29991,7 @@
         <v>33.903</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>262</v>
       </c>
@@ -30014,7 +30005,7 @@
         <v>42.593</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>141</v>
       </c>
@@ -30028,7 +30019,7 @@
         <v>43.936</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>263</v>
       </c>
@@ -30042,7 +30033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>264</v>
       </c>
@@ -30056,7 +30047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>265</v>
       </c>
@@ -30070,7 +30061,7 @@
         <v>49.111</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>266</v>
       </c>
@@ -30084,7 +30075,7 @@
         <v>27.823</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>267</v>
       </c>
@@ -30098,7 +30089,7 @@
         <v>10.2</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>147</v>
       </c>
@@ -30112,7 +30103,7 @@
         <v>19.862</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>268</v>
       </c>
@@ -30126,7 +30117,7 @@
         <v>41.525</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>149</v>
       </c>
@@ -30140,7 +30131,7 @@
         <v>40.653</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>269</v>
       </c>
@@ -30154,7 +30145,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>270</v>
       </c>
@@ -30168,7 +30159,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>309</v>
       </c>
@@ -30182,7 +30173,7 @@
         <v>34.081</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>272</v>
       </c>
@@ -30196,7 +30187,7 @@
         <v>38.445</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>273</v>
       </c>
@@ -30210,7 +30201,7 @@
         <v>43.331</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>274</v>
       </c>
@@ -30224,7 +30215,7 @@
         <v>18.273</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>156</v>
       </c>
@@ -30238,7 +30229,7 @@
         <v>41.537</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>275</v>
       </c>
@@ -30252,7 +30243,7 @@
         <v>18.581</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>276</v>
       </c>
@@ -30266,7 +30257,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>277</v>
       </c>
@@ -30280,7 +30271,7 @@
         <v>24.817</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>278</v>
       </c>
@@ -30294,7 +30285,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>279</v>
       </c>
@@ -30308,7 +30299,7 @@
         <v>49.778</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>280</v>
       </c>
@@ -30322,7 +30313,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>281</v>
       </c>
@@ -30336,7 +30327,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>282</v>
       </c>
@@ -30350,7 +30341,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>165</v>
       </c>
@@ -30364,7 +30355,7 @@
         <v>18.154</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>283</v>
       </c>
@@ -30378,7 +30369,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>310</v>
       </c>
@@ -30392,7 +30383,7 @@
         <v>27.333</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>168</v>
       </c>
@@ -30406,7 +30397,7 @@
         <v>26.901</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>284</v>
       </c>
@@ -30420,7 +30411,7 @@
         <v>49.632</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>285</v>
       </c>
@@ -30434,7 +30425,7 @@
         <v>44.107</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>171</v>
       </c>
@@ -30448,7 +30439,7 @@
         <v>35.606</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>286</v>
       </c>
@@ -30458,7 +30449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>287</v>
       </c>
@@ -30486,7 +30477,7 @@
   </sheetPr>
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/academycity/data/avic/datasets/excel/eli/1992.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/1992.xlsx
@@ -28314,7 +28314,7 @@
   <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28346,13 +28346,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>34.35678</v>
+        <v>13.23855</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>39.6350863844848</v>
+        <v>13.6819486810306</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44.0296934643531</v>
+        <v>13.8349123234829</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28360,13 +28360,13 @@
         <v>23</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>13.23855</v>
+        <v>34.35678</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>13.6819486810306</v>
+        <v>39.6350863844848</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>13.8349123234829</v>
+        <v>44.0296934643531</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
